--- a/biology/Botanique/Sereno_Watson/Sereno_Watson.xlsx
+++ b/biology/Botanique/Sereno_Watson/Sereno_Watson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sereno Watson est un botaniste américain, né le 1er décembre 1826 à East Windsor dans le Connecticut et décédé le 9 mars 1892 à Cambridge dans le Massachusetts.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Watson grandit dans une ferme du Connecticut. Diplômé à l’université Yale en 1847, il exerce divers emplois. En 1866 et 1867, il étudie, à l’école scientifique Sheffield de Yale, la biologie et la minéralogie. Il part alors en Californie. Il participe à l’expédition géologique de Clarence King (1842-1901) sur le 40e de latitude. Le botaniste de l’expédition, William Whitman Bailey (1843-1914), tombe malade, aussi Watson le remplace. Son rapport de botanique est d’un haut niveau de qualité malgré l’absence de formation dans cette discipline. Asa Gray (1810-1888) est tellement enthousiasmé qu’il lui offre un poste d’assistant à l’herbier Gray. Il y occupe un poste de conservateur de 1874 à sa mort, en 1892.
 Sa nièce est la photographe Edith Watson (1861-1943).
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Botany, in Report of the geological exploration of the 40th parallel made... by Clarence King, 1871</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue allemande de Wikipédia (version du 20 janvier 2008).</t>
         </is>
